--- a/data/pomocka_saldo.xlsx
+++ b/data/pomocka_saldo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Manuálne účtovanie</t>
   </si>
@@ -63,7 +63,16 @@
     <t>Cent. vyrovnanie</t>
   </si>
   <si>
-    <t>značka</t>
+    <t>Dobropis</t>
+  </si>
+  <si>
+    <t>Faktúra - Dobropis</t>
+  </si>
+  <si>
+    <t>Dávka platobných príkazov</t>
+  </si>
+  <si>
+    <t>Vrátenie platby</t>
   </si>
 </sst>
 </file>
@@ -423,100 +432,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
